--- a/data/di_heat_inputs_6ofr/di_80w.xlsx
+++ b/data/di_heat_inputs_6ofr/di_80w.xlsx
@@ -445,10 +445,10 @@
   <dimension ref="A1:Q602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N262" sqref="N262:N271"/>
+      <selection pane="bottomRight" activeCell="N272" sqref="N272:N602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16009,7 +16009,7 @@
         <v>85</v>
       </c>
       <c r="N273" s="13">
-        <v>796.83</v>
+        <v>796.78</v>
       </c>
       <c r="O273" s="14">
         <f t="shared" si="23"/>
@@ -16066,7 +16066,7 @@
         <v>85</v>
       </c>
       <c r="N274" s="13">
-        <v>796.88</v>
+        <v>796.78</v>
       </c>
       <c r="O274" s="14">
         <f t="shared" si="23"/>
@@ -16123,7 +16123,7 @@
         <v>85.2</v>
       </c>
       <c r="N275" s="13">
-        <v>796.93</v>
+        <v>796.78</v>
       </c>
       <c r="O275" s="14">
         <f t="shared" si="23"/>
@@ -16180,7 +16180,7 @@
         <v>85.6</v>
       </c>
       <c r="N276" s="13">
-        <v>796.98</v>
+        <v>796.78</v>
       </c>
       <c r="O276" s="14">
         <f t="shared" si="23"/>
@@ -16237,7 +16237,7 @@
         <v>85.6</v>
       </c>
       <c r="N277" s="13">
-        <v>797.03</v>
+        <v>796.78</v>
       </c>
       <c r="O277" s="14">
         <f t="shared" si="23"/>
@@ -16294,7 +16294,7 @@
         <v>85.8</v>
       </c>
       <c r="N278" s="13">
-        <v>797.08</v>
+        <v>796.78</v>
       </c>
       <c r="O278" s="14">
         <f t="shared" si="23"/>
@@ -16351,7 +16351,7 @@
         <v>85.8</v>
       </c>
       <c r="N279" s="13">
-        <v>797.13</v>
+        <v>796.78</v>
       </c>
       <c r="O279" s="14">
         <f t="shared" si="23"/>
@@ -16408,7 +16408,7 @@
         <v>85.8</v>
       </c>
       <c r="N280" s="13">
-        <v>797.18</v>
+        <v>796.78</v>
       </c>
       <c r="O280" s="14">
         <f t="shared" si="23"/>
@@ -16465,7 +16465,7 @@
         <v>86</v>
       </c>
       <c r="N281" s="13">
-        <v>797.23</v>
+        <v>796.78</v>
       </c>
       <c r="O281" s="14">
         <f t="shared" si="23"/>
@@ -16522,7 +16522,7 @@
         <v>86</v>
       </c>
       <c r="N282" s="13">
-        <v>797.28</v>
+        <v>796.78</v>
       </c>
       <c r="O282" s="14">
         <f t="shared" si="23"/>
@@ -16579,7 +16579,7 @@
         <v>86.2</v>
       </c>
       <c r="N283" s="13">
-        <v>797.33</v>
+        <v>796.78</v>
       </c>
       <c r="O283" s="14">
         <f t="shared" si="23"/>
@@ -16636,7 +16636,7 @@
         <v>86.6</v>
       </c>
       <c r="N284" s="13">
-        <v>797.38</v>
+        <v>796.78</v>
       </c>
       <c r="O284" s="14">
         <f t="shared" si="23"/>
@@ -16693,7 +16693,7 @@
         <v>86.4</v>
       </c>
       <c r="N285" s="13">
-        <v>797.43</v>
+        <v>796.78</v>
       </c>
       <c r="O285" s="14">
         <f t="shared" si="23"/>
@@ -16750,7 +16750,7 @@
         <v>86.4</v>
       </c>
       <c r="N286" s="13">
-        <v>797.48</v>
+        <v>796.78</v>
       </c>
       <c r="O286" s="14">
         <f t="shared" si="23"/>
@@ -16807,7 +16807,7 @@
         <v>86.4</v>
       </c>
       <c r="N287" s="13">
-        <v>797.53</v>
+        <v>796.78</v>
       </c>
       <c r="O287" s="14">
         <f t="shared" si="23"/>
@@ -16864,7 +16864,7 @@
         <v>87</v>
       </c>
       <c r="N288" s="13">
-        <v>797.58</v>
+        <v>796.78</v>
       </c>
       <c r="O288" s="14">
         <f t="shared" si="23"/>
@@ -16921,7 +16921,7 @@
         <v>86.6</v>
       </c>
       <c r="N289" s="13">
-        <v>797.63</v>
+        <v>796.78</v>
       </c>
       <c r="O289" s="14">
         <f t="shared" si="23"/>
@@ -16978,7 +16978,7 @@
         <v>86.6</v>
       </c>
       <c r="N290" s="13">
-        <v>797.68</v>
+        <v>796.78</v>
       </c>
       <c r="O290" s="14">
         <f t="shared" si="23"/>
@@ -17035,7 +17035,7 @@
         <v>86.4</v>
       </c>
       <c r="N291" s="13">
-        <v>797.73</v>
+        <v>796.78</v>
       </c>
       <c r="O291" s="14">
         <f t="shared" si="23"/>
@@ -17092,7 +17092,7 @@
         <v>87</v>
       </c>
       <c r="N292" s="13">
-        <v>797.78</v>
+        <v>796.78</v>
       </c>
       <c r="O292" s="14">
         <f t="shared" si="23"/>
@@ -17149,7 +17149,7 @@
         <v>87</v>
       </c>
       <c r="N293" s="13">
-        <v>797.83</v>
+        <v>796.78</v>
       </c>
       <c r="O293" s="14">
         <f t="shared" si="23"/>
@@ -17206,7 +17206,7 @@
         <v>86.8</v>
       </c>
       <c r="N294" s="13">
-        <v>797.88</v>
+        <v>796.78</v>
       </c>
       <c r="O294" s="14">
         <f t="shared" si="23"/>
@@ -17263,7 +17263,7 @@
         <v>86.6</v>
       </c>
       <c r="N295" s="13">
-        <v>835.86</v>
+        <v>833.56</v>
       </c>
       <c r="O295" s="14">
         <f t="shared" si="23"/>
@@ -17320,7 +17320,7 @@
         <v>86.6</v>
       </c>
       <c r="N296" s="13">
-        <v>835.96</v>
+        <v>833.56</v>
       </c>
       <c r="O296" s="14">
         <f t="shared" si="23"/>
@@ -17377,7 +17377,7 @@
         <v>87</v>
       </c>
       <c r="N297" s="13">
-        <v>836.06</v>
+        <v>833.56</v>
       </c>
       <c r="O297" s="14">
         <f t="shared" si="23"/>
@@ -17434,7 +17434,7 @@
         <v>87.6</v>
       </c>
       <c r="N298" s="13">
-        <v>836.16</v>
+        <v>833.56</v>
       </c>
       <c r="O298" s="14">
         <f t="shared" si="23"/>
@@ -17491,7 +17491,7 @@
         <v>87.6</v>
       </c>
       <c r="N299" s="13">
-        <v>836.26</v>
+        <v>833.56</v>
       </c>
       <c r="O299" s="14">
         <f t="shared" si="23"/>
@@ -17548,7 +17548,7 @@
         <v>87.6</v>
       </c>
       <c r="N300" s="13">
-        <v>836.36</v>
+        <v>833.56</v>
       </c>
       <c r="O300" s="14">
         <f t="shared" si="23"/>
@@ -17605,7 +17605,7 @@
         <v>87.6</v>
       </c>
       <c r="N301" s="13">
-        <v>836.46</v>
+        <v>833.56</v>
       </c>
       <c r="O301" s="14">
         <f t="shared" si="23"/>
@@ -17662,7 +17662,7 @@
         <v>87.6</v>
       </c>
       <c r="N302" s="13">
-        <v>836.56</v>
+        <v>833.56</v>
       </c>
       <c r="O302" s="14">
         <f t="shared" si="23"/>
@@ -17719,7 +17719,7 @@
         <v>87.6</v>
       </c>
       <c r="N303" s="13">
-        <v>836.66</v>
+        <v>833.56</v>
       </c>
       <c r="O303" s="14">
         <f t="shared" si="23"/>
@@ -17776,7 +17776,7 @@
         <v>87.8</v>
       </c>
       <c r="N304" s="13">
-        <v>836.76</v>
+        <v>833.56</v>
       </c>
       <c r="O304" s="14">
         <f t="shared" si="23"/>
@@ -17833,7 +17833,7 @@
         <v>88</v>
       </c>
       <c r="N305" s="13">
-        <v>836.86</v>
+        <v>833.56</v>
       </c>
       <c r="O305" s="14">
         <f t="shared" si="23"/>
@@ -17890,7 +17890,7 @@
         <v>88.2</v>
       </c>
       <c r="N306" s="13">
-        <v>836.96</v>
+        <v>833.56</v>
       </c>
       <c r="O306" s="14">
         <f t="shared" si="23"/>
@@ -17947,7 +17947,7 @@
         <v>88.4</v>
       </c>
       <c r="N307" s="13">
-        <v>837.06</v>
+        <v>833.56</v>
       </c>
       <c r="O307" s="14">
         <f t="shared" si="23"/>
@@ -18004,7 +18004,7 @@
         <v>88.4</v>
       </c>
       <c r="N308" s="13">
-        <v>837.16</v>
+        <v>833.56</v>
       </c>
       <c r="O308" s="14">
         <f t="shared" si="23"/>
@@ -18061,7 +18061,7 @@
         <v>88.6</v>
       </c>
       <c r="N309" s="13">
-        <v>837.26</v>
+        <v>833.56</v>
       </c>
       <c r="O309" s="14">
         <f t="shared" si="23"/>
@@ -18118,7 +18118,7 @@
         <v>88</v>
       </c>
       <c r="N310" s="13">
-        <v>837.36</v>
+        <v>833.56</v>
       </c>
       <c r="O310" s="14">
         <f t="shared" si="23"/>
@@ -18175,7 +18175,7 @@
         <v>88</v>
       </c>
       <c r="N311" s="13">
-        <v>837.46</v>
+        <v>833.56</v>
       </c>
       <c r="O311" s="14">
         <f t="shared" si="23"/>
@@ -18232,7 +18232,7 @@
         <v>88.2</v>
       </c>
       <c r="N312" s="13">
-        <v>876.34</v>
+        <v>870.34</v>
       </c>
       <c r="O312" s="14">
         <f t="shared" si="23"/>
@@ -18289,7 +18289,7 @@
         <v>88.6</v>
       </c>
       <c r="N313" s="13">
-        <v>876.49</v>
+        <v>870.34</v>
       </c>
       <c r="O313" s="14">
         <f t="shared" si="23"/>
@@ -18346,7 +18346,7 @@
         <v>88.8</v>
       </c>
       <c r="N314" s="13">
-        <v>876.64</v>
+        <v>870.34</v>
       </c>
       <c r="O314" s="14">
         <f t="shared" si="23"/>
@@ -18403,7 +18403,7 @@
         <v>88.8</v>
       </c>
       <c r="N315" s="13">
-        <v>876.79</v>
+        <v>870.34</v>
       </c>
       <c r="O315" s="14">
         <f t="shared" si="23"/>
@@ -18460,7 +18460,7 @@
         <v>88.6</v>
       </c>
       <c r="N316" s="13">
-        <v>876.94</v>
+        <v>870.34</v>
       </c>
       <c r="O316" s="14">
         <f t="shared" si="23"/>
@@ -18517,7 +18517,7 @@
         <v>88.8</v>
       </c>
       <c r="N317" s="13">
-        <v>877.09</v>
+        <v>870.34</v>
       </c>
       <c r="O317" s="14">
         <f t="shared" si="23"/>
@@ -18574,7 +18574,7 @@
         <v>89</v>
       </c>
       <c r="N318" s="13">
-        <v>877.24</v>
+        <v>870.34</v>
       </c>
       <c r="O318" s="14">
         <f t="shared" si="23"/>
@@ -18631,7 +18631,7 @@
         <v>89.2</v>
       </c>
       <c r="N319" s="13">
-        <v>877.39</v>
+        <v>870.34</v>
       </c>
       <c r="O319" s="14">
         <f t="shared" si="23"/>
@@ -18688,7 +18688,7 @@
         <v>89</v>
       </c>
       <c r="N320" s="13">
-        <v>877.54</v>
+        <v>870.34</v>
       </c>
       <c r="O320" s="14">
         <f t="shared" si="23"/>
@@ -18745,7 +18745,7 @@
         <v>89</v>
       </c>
       <c r="N321" s="13">
-        <v>877.69</v>
+        <v>870.34</v>
       </c>
       <c r="O321" s="14">
         <f t="shared" si="23"/>
@@ -18802,7 +18802,7 @@
         <v>89.4</v>
       </c>
       <c r="N322" s="13">
-        <v>877.84</v>
+        <v>870.34</v>
       </c>
       <c r="O322" s="14">
         <f t="shared" ref="O322:O385" si="27">(M322-G322)</f>
@@ -18859,7 +18859,7 @@
         <v>89.2</v>
       </c>
       <c r="N323" s="13">
-        <v>877.99</v>
+        <v>870.34</v>
       </c>
       <c r="O323" s="14">
         <f t="shared" si="27"/>
@@ -18916,7 +18916,7 @@
         <v>89.2</v>
       </c>
       <c r="N324" s="13">
-        <v>878.14</v>
+        <v>870.34</v>
       </c>
       <c r="O324" s="14">
         <f t="shared" si="27"/>
@@ -18973,7 +18973,7 @@
         <v>89.2</v>
       </c>
       <c r="N325" s="13">
-        <v>878.29</v>
+        <v>870.34</v>
       </c>
       <c r="O325" s="14">
         <f t="shared" si="27"/>
@@ -19030,7 +19030,7 @@
         <v>89.2</v>
       </c>
       <c r="N326" s="13">
-        <v>878.44</v>
+        <v>870.34</v>
       </c>
       <c r="O326" s="14">
         <f t="shared" si="27"/>
@@ -19087,7 +19087,7 @@
         <v>89.2</v>
       </c>
       <c r="N327" s="13">
-        <v>878.59</v>
+        <v>870.34</v>
       </c>
       <c r="O327" s="14">
         <f t="shared" si="27"/>
@@ -19144,7 +19144,7 @@
         <v>89.2</v>
       </c>
       <c r="N328" s="13">
-        <v>878.74</v>
+        <v>870.34</v>
       </c>
       <c r="O328" s="14">
         <f t="shared" si="27"/>
@@ -19201,7 +19201,7 @@
         <v>89</v>
       </c>
       <c r="N329" s="13">
-        <v>878.89</v>
+        <v>870.34</v>
       </c>
       <c r="O329" s="14">
         <f t="shared" si="27"/>
@@ -19258,7 +19258,7 @@
         <v>89.6</v>
       </c>
       <c r="N330" s="13">
-        <v>879.04</v>
+        <v>870.34</v>
       </c>
       <c r="O330" s="14">
         <f t="shared" si="27"/>
@@ -19315,7 +19315,7 @@
         <v>89.2</v>
       </c>
       <c r="N331" s="13">
-        <v>879.19</v>
+        <v>870.34</v>
       </c>
       <c r="O331" s="14">
         <f t="shared" si="27"/>
@@ -19372,7 +19372,7 @@
         <v>89.8</v>
       </c>
       <c r="N332" s="13">
-        <v>919.12</v>
+        <v>907.12</v>
       </c>
       <c r="O332" s="14">
         <f t="shared" si="27"/>
@@ -19429,7 +19429,7 @@
         <v>89.8</v>
       </c>
       <c r="N333" s="13">
-        <v>919.32</v>
+        <v>907.12</v>
       </c>
       <c r="O333" s="14">
         <f t="shared" si="27"/>
@@ -19486,7 +19486,7 @@
         <v>89.6</v>
       </c>
       <c r="N334" s="13">
-        <v>919.52</v>
+        <v>907.12</v>
       </c>
       <c r="O334" s="14">
         <f t="shared" si="27"/>
@@ -19543,7 +19543,7 @@
         <v>90</v>
       </c>
       <c r="N335" s="13">
-        <v>919.72</v>
+        <v>907.12</v>
       </c>
       <c r="O335" s="14">
         <f t="shared" si="27"/>
@@ -19600,7 +19600,7 @@
         <v>89.8</v>
       </c>
       <c r="N336" s="13">
-        <v>919.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="O336" s="14">
         <f t="shared" si="27"/>
@@ -19657,7 +19657,7 @@
         <v>90</v>
       </c>
       <c r="N337" s="13">
-        <v>920.12</v>
+        <v>907.12</v>
       </c>
       <c r="O337" s="14">
         <f t="shared" si="27"/>
@@ -19714,7 +19714,7 @@
         <v>89.8</v>
       </c>
       <c r="N338" s="13">
-        <v>920.32</v>
+        <v>907.12</v>
       </c>
       <c r="O338" s="14">
         <f t="shared" si="27"/>
@@ -19771,7 +19771,7 @@
         <v>90</v>
       </c>
       <c r="N339" s="13">
-        <v>920.52</v>
+        <v>907.12</v>
       </c>
       <c r="O339" s="14">
         <f t="shared" si="27"/>
@@ -19828,7 +19828,7 @@
         <v>89.8</v>
       </c>
       <c r="N340" s="13">
-        <v>920.72</v>
+        <v>907.12</v>
       </c>
       <c r="O340" s="14">
         <f t="shared" si="27"/>
@@ -19885,7 +19885,7 @@
         <v>90.6</v>
       </c>
       <c r="N341" s="13">
-        <v>920.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="O341" s="14">
         <f t="shared" si="27"/>
@@ -19942,7 +19942,7 @@
         <v>90.2</v>
       </c>
       <c r="N342" s="13">
-        <v>921.12</v>
+        <v>907.12</v>
       </c>
       <c r="O342" s="14">
         <f t="shared" si="27"/>
@@ -19999,7 +19999,7 @@
         <v>90.6</v>
       </c>
       <c r="N343" s="13">
-        <v>921.32</v>
+        <v>907.12</v>
       </c>
       <c r="O343" s="14">
         <f t="shared" si="27"/>
@@ -20056,7 +20056,7 @@
         <v>90</v>
       </c>
       <c r="N344" s="13">
-        <v>921.52</v>
+        <v>907.12</v>
       </c>
       <c r="O344" s="14">
         <f t="shared" si="27"/>
@@ -20113,7 +20113,7 @@
         <v>90.6</v>
       </c>
       <c r="N345" s="13">
-        <v>921.72</v>
+        <v>907.12</v>
       </c>
       <c r="O345" s="14">
         <f t="shared" si="27"/>
@@ -20170,7 +20170,7 @@
         <v>90.2</v>
       </c>
       <c r="N346" s="13">
-        <v>921.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="O346" s="14">
         <f t="shared" si="27"/>
@@ -20227,7 +20227,7 @@
         <v>89.4</v>
       </c>
       <c r="N347" s="13">
-        <v>922.12</v>
+        <v>907.12</v>
       </c>
       <c r="O347" s="14">
         <f t="shared" si="27"/>
@@ -20284,7 +20284,7 @@
         <v>89.4</v>
       </c>
       <c r="N348" s="13">
-        <v>922.32</v>
+        <v>907.12</v>
       </c>
       <c r="O348" s="14">
         <f t="shared" si="27"/>
@@ -20341,7 +20341,7 @@
         <v>90.4</v>
       </c>
       <c r="N349" s="13">
-        <v>922.52</v>
+        <v>907.12</v>
       </c>
       <c r="O349" s="14">
         <f t="shared" si="27"/>
@@ -20398,7 +20398,7 @@
         <v>90.4</v>
       </c>
       <c r="N350" s="13">
-        <v>922.72</v>
+        <v>907.12</v>
       </c>
       <c r="O350" s="14">
         <f t="shared" si="27"/>
@@ -20455,7 +20455,7 @@
         <v>90.4</v>
       </c>
       <c r="N351" s="13">
-        <v>922.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="O351" s="14">
         <f t="shared" si="27"/>
@@ -20512,7 +20512,7 @@
         <v>90.4</v>
       </c>
       <c r="N352" s="13">
-        <v>923.12</v>
+        <v>907.12</v>
       </c>
       <c r="O352" s="14">
         <f t="shared" si="27"/>
@@ -20569,7 +20569,7 @@
         <v>90.2</v>
       </c>
       <c r="N353" s="13">
-        <v>923.32</v>
+        <v>907.12</v>
       </c>
       <c r="O353" s="14">
         <f t="shared" si="27"/>
@@ -20626,7 +20626,7 @@
         <v>90.4</v>
       </c>
       <c r="N354" s="13">
-        <v>923.52</v>
+        <v>907.12</v>
       </c>
       <c r="O354" s="14">
         <f t="shared" si="27"/>
@@ -20683,7 +20683,7 @@
         <v>90.2</v>
       </c>
       <c r="N355" s="13">
-        <v>923.72</v>
+        <v>907.12</v>
       </c>
       <c r="O355" s="14">
         <f t="shared" si="27"/>
@@ -20740,7 +20740,7 @@
         <v>90.4</v>
       </c>
       <c r="N356" s="13">
-        <v>923.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="O356" s="14">
         <f t="shared" si="27"/>
@@ -20797,7 +20797,7 @@
         <v>90.4</v>
       </c>
       <c r="N357" s="13">
-        <v>924.12</v>
+        <v>907.12</v>
       </c>
       <c r="O357" s="14">
         <f t="shared" si="27"/>
@@ -20854,7 +20854,7 @@
         <v>90.8</v>
       </c>
       <c r="N358" s="13">
-        <v>924.32</v>
+        <v>907.12</v>
       </c>
       <c r="O358" s="14">
         <f t="shared" si="27"/>
@@ -20911,7 +20911,7 @@
         <v>90.8</v>
       </c>
       <c r="N359" s="13">
-        <v>924.52</v>
+        <v>907.12</v>
       </c>
       <c r="O359" s="14">
         <f t="shared" si="27"/>
@@ -20968,7 +20968,7 @@
         <v>90.6</v>
       </c>
       <c r="N360" s="13">
-        <v>924.72</v>
+        <v>907.12</v>
       </c>
       <c r="O360" s="14">
         <f t="shared" si="27"/>
@@ -21025,7 +21025,7 @@
         <v>90.8</v>
       </c>
       <c r="N361" s="13">
-        <v>924.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="O361" s="14">
         <f t="shared" si="27"/>
@@ -21082,7 +21082,7 @@
         <v>91.2</v>
       </c>
       <c r="N362" s="13">
-        <v>925.12</v>
+        <v>907.12</v>
       </c>
       <c r="O362" s="14">
         <f t="shared" si="27"/>
@@ -21139,7 +21139,7 @@
         <v>91.2</v>
       </c>
       <c r="N363" s="13">
-        <v>925.32</v>
+        <v>907.12</v>
       </c>
       <c r="O363" s="14">
         <f t="shared" si="27"/>
@@ -21196,7 +21196,7 @@
         <v>91.4</v>
       </c>
       <c r="N364" s="13">
-        <v>925.52</v>
+        <v>907.12</v>
       </c>
       <c r="O364" s="14">
         <f t="shared" si="27"/>
@@ -21253,7 +21253,7 @@
         <v>91.6</v>
       </c>
       <c r="N365" s="13">
-        <v>925.72</v>
+        <v>907.12</v>
       </c>
       <c r="O365" s="14">
         <f t="shared" si="27"/>
@@ -21310,7 +21310,7 @@
         <v>91</v>
       </c>
       <c r="N366" s="13">
-        <v>967.4</v>
+        <v>943.9</v>
       </c>
       <c r="O366" s="14">
         <f t="shared" si="27"/>
@@ -21367,7 +21367,7 @@
         <v>91.2</v>
       </c>
       <c r="N367" s="13">
-        <v>967.65</v>
+        <v>943.9</v>
       </c>
       <c r="O367" s="14">
         <f t="shared" si="27"/>
@@ -21424,7 +21424,7 @@
         <v>91.6</v>
       </c>
       <c r="N368" s="13">
-        <v>967.9</v>
+        <v>943.9</v>
       </c>
       <c r="O368" s="14">
         <f t="shared" si="27"/>
@@ -21481,7 +21481,7 @@
         <v>91.2</v>
       </c>
       <c r="N369" s="13">
-        <v>968.15</v>
+        <v>943.9</v>
       </c>
       <c r="O369" s="14">
         <f t="shared" si="27"/>
@@ -21538,7 +21538,7 @@
         <v>91.4</v>
       </c>
       <c r="N370" s="13">
-        <v>968.4</v>
+        <v>943.9</v>
       </c>
       <c r="O370" s="14">
         <f t="shared" si="27"/>
@@ -21595,7 +21595,7 @@
         <v>91.6</v>
       </c>
       <c r="N371" s="13">
-        <v>968.65</v>
+        <v>943.9</v>
       </c>
       <c r="O371" s="14">
         <f t="shared" si="27"/>
@@ -21652,7 +21652,7 @@
         <v>91.4</v>
       </c>
       <c r="N372" s="13">
-        <v>968.9</v>
+        <v>943.9</v>
       </c>
       <c r="O372" s="14">
         <f t="shared" si="27"/>
@@ -21709,7 +21709,7 @@
         <v>91.6</v>
       </c>
       <c r="N373" s="13">
-        <v>969.15</v>
+        <v>943.9</v>
       </c>
       <c r="O373" s="14">
         <f t="shared" si="27"/>
@@ -21766,7 +21766,7 @@
         <v>91.8</v>
       </c>
       <c r="N374" s="13">
-        <v>969.4</v>
+        <v>943.9</v>
       </c>
       <c r="O374" s="14">
         <f t="shared" si="27"/>
@@ -21823,7 +21823,7 @@
         <v>91.6</v>
       </c>
       <c r="N375" s="13">
-        <v>969.65</v>
+        <v>943.9</v>
       </c>
       <c r="O375" s="14">
         <f t="shared" si="27"/>
@@ -21880,7 +21880,7 @@
         <v>91.6</v>
       </c>
       <c r="N376" s="13">
-        <v>969.9</v>
+        <v>943.9</v>
       </c>
       <c r="O376" s="14">
         <f t="shared" si="27"/>
@@ -21937,7 +21937,7 @@
         <v>91.6</v>
       </c>
       <c r="N377" s="13">
-        <v>970.15</v>
+        <v>943.9</v>
       </c>
       <c r="O377" s="14">
         <f t="shared" si="27"/>
@@ -21994,7 +21994,7 @@
         <v>91.4</v>
       </c>
       <c r="N378" s="13">
-        <v>970.4</v>
+        <v>943.9</v>
       </c>
       <c r="O378" s="14">
         <f t="shared" si="27"/>
@@ -22051,7 +22051,7 @@
         <v>91.8</v>
       </c>
       <c r="N379" s="13">
-        <v>970.65</v>
+        <v>943.9</v>
       </c>
       <c r="O379" s="14">
         <f t="shared" si="27"/>
@@ -22108,7 +22108,7 @@
         <v>91.6</v>
       </c>
       <c r="N380" s="13">
-        <v>970.9</v>
+        <v>943.9</v>
       </c>
       <c r="O380" s="14">
         <f t="shared" si="27"/>
@@ -22165,7 +22165,7 @@
         <v>92.4</v>
       </c>
       <c r="N381" s="13">
-        <v>971.15</v>
+        <v>943.9</v>
       </c>
       <c r="O381" s="14">
         <f t="shared" si="27"/>
@@ -22222,7 +22222,7 @@
         <v>92</v>
       </c>
       <c r="N382" s="13">
-        <v>971.4</v>
+        <v>943.9</v>
       </c>
       <c r="O382" s="14">
         <f t="shared" si="27"/>
@@ -22279,7 +22279,7 @@
         <v>91.8</v>
       </c>
       <c r="N383" s="13">
-        <v>971.65</v>
+        <v>943.9</v>
       </c>
       <c r="O383" s="14">
         <f t="shared" si="27"/>
@@ -22336,7 +22336,7 @@
         <v>91.8</v>
       </c>
       <c r="N384" s="13">
-        <v>971.9</v>
+        <v>943.9</v>
       </c>
       <c r="O384" s="14">
         <f t="shared" si="27"/>
@@ -22393,7 +22393,7 @@
         <v>92.4</v>
       </c>
       <c r="N385" s="13">
-        <v>972.15</v>
+        <v>943.9</v>
       </c>
       <c r="O385" s="14">
         <f t="shared" si="27"/>
@@ -22450,7 +22450,7 @@
         <v>92.4</v>
       </c>
       <c r="N386" s="13">
-        <v>972.4</v>
+        <v>943.9</v>
       </c>
       <c r="O386" s="14">
         <f t="shared" ref="O386:O449" si="31">(M386-G386)</f>
@@ -22507,7 +22507,7 @@
         <v>92.6</v>
       </c>
       <c r="N387" s="13">
-        <v>972.65</v>
+        <v>943.9</v>
       </c>
       <c r="O387" s="14">
         <f t="shared" si="31"/>
@@ -22564,7 +22564,7 @@
         <v>92.4</v>
       </c>
       <c r="N388" s="13">
-        <v>972.9</v>
+        <v>943.9</v>
       </c>
       <c r="O388" s="14">
         <f t="shared" si="31"/>
@@ -22621,7 +22621,7 @@
         <v>92.4</v>
       </c>
       <c r="N389" s="13">
-        <v>1015.78</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O389" s="14">
         <f t="shared" si="31"/>
@@ -22678,7 +22678,7 @@
         <v>92.4</v>
       </c>
       <c r="N390" s="13">
-        <v>1016.0799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O390" s="14">
         <f t="shared" si="31"/>
@@ -22735,7 +22735,7 @@
         <v>92.2</v>
       </c>
       <c r="N391" s="13">
-        <v>1016.38</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O391" s="14">
         <f t="shared" si="31"/>
@@ -22792,7 +22792,7 @@
         <v>92.4</v>
       </c>
       <c r="N392" s="13">
-        <v>1016.6800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O392" s="14">
         <f t="shared" si="31"/>
@@ -22849,7 +22849,7 @@
         <v>92.4</v>
       </c>
       <c r="N393" s="13">
-        <v>1016.98</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O393" s="14">
         <f t="shared" si="31"/>
@@ -22906,7 +22906,7 @@
         <v>92.8</v>
       </c>
       <c r="N394" s="13">
-        <v>1017.28</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O394" s="14">
         <f t="shared" si="31"/>
@@ -22963,7 +22963,7 @@
         <v>92.6</v>
       </c>
       <c r="N395" s="13">
-        <v>1017.5799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O395" s="14">
         <f t="shared" si="31"/>
@@ -23020,7 +23020,7 @@
         <v>92.6</v>
       </c>
       <c r="N396" s="13">
-        <v>1017.88</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O396" s="14">
         <f t="shared" si="31"/>
@@ -23077,7 +23077,7 @@
         <v>92.2</v>
       </c>
       <c r="N397" s="13">
-        <v>1018.1800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O397" s="14">
         <f t="shared" si="31"/>
@@ -23134,7 +23134,7 @@
         <v>92.2</v>
       </c>
       <c r="N398" s="13">
-        <v>1018.48</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O398" s="14">
         <f t="shared" si="31"/>
@@ -23191,7 +23191,7 @@
         <v>92.4</v>
       </c>
       <c r="N399" s="13">
-        <v>1018.78</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O399" s="14">
         <f t="shared" si="31"/>
@@ -23248,7 +23248,7 @@
         <v>92.4</v>
       </c>
       <c r="N400" s="13">
-        <v>1019.0799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O400" s="14">
         <f t="shared" si="31"/>
@@ -23305,7 +23305,7 @@
         <v>92.4</v>
       </c>
       <c r="N401" s="13">
-        <v>1019.38</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O401" s="14">
         <f t="shared" si="31"/>
@@ -23362,7 +23362,7 @@
         <v>92.6</v>
       </c>
       <c r="N402" s="13">
-        <v>1019.6800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O402" s="14">
         <f t="shared" si="31"/>
@@ -23419,7 +23419,7 @@
         <v>92.6</v>
       </c>
       <c r="N403" s="13">
-        <v>1019.98</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O403" s="14">
         <f t="shared" si="31"/>
@@ -23476,7 +23476,7 @@
         <v>92.8</v>
       </c>
       <c r="N404" s="13">
-        <v>1020.28</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O404" s="14">
         <f t="shared" si="31"/>
@@ -23533,7 +23533,7 @@
         <v>92.6</v>
       </c>
       <c r="N405" s="13">
-        <v>1020.5799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O405" s="14">
         <f t="shared" si="31"/>
@@ -23590,7 +23590,7 @@
         <v>92.4</v>
       </c>
       <c r="N406" s="13">
-        <v>1020.88</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O406" s="14">
         <f t="shared" si="31"/>
@@ -23647,7 +23647,7 @@
         <v>92.8</v>
       </c>
       <c r="N407" s="13">
-        <v>1021.1800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O407" s="14">
         <f t="shared" si="31"/>
@@ -23704,7 +23704,7 @@
         <v>92.6</v>
       </c>
       <c r="N408" s="13">
-        <v>1021.48</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O408" s="14">
         <f t="shared" si="31"/>
@@ -23761,7 +23761,7 @@
         <v>92.6</v>
       </c>
       <c r="N409" s="13">
-        <v>1021.78</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O409" s="14">
         <f t="shared" si="31"/>
@@ -23818,7 +23818,7 @@
         <v>92.8</v>
       </c>
       <c r="N410" s="13">
-        <v>1022.0799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O410" s="14">
         <f t="shared" si="31"/>
@@ -23875,7 +23875,7 @@
         <v>92.6</v>
       </c>
       <c r="N411" s="13">
-        <v>1022.38</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O411" s="14">
         <f t="shared" si="31"/>
@@ -23932,7 +23932,7 @@
         <v>93</v>
       </c>
       <c r="N412" s="13">
-        <v>1022.6800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O412" s="14">
         <f t="shared" si="31"/>
@@ -23989,7 +23989,7 @@
         <v>92.8</v>
       </c>
       <c r="N413" s="13">
-        <v>1022.98</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="O413" s="14">
         <f t="shared" si="31"/>
@@ -24046,7 +24046,7 @@
         <v>93.2</v>
       </c>
       <c r="N414" s="13">
-        <v>1067.1599999999999</v>
+        <v>1017.46</v>
       </c>
       <c r="O414" s="14">
         <f t="shared" si="31"/>
@@ -24103,7 +24103,7 @@
         <v>93</v>
       </c>
       <c r="N415" s="13">
-        <v>1067.51</v>
+        <v>1017.46</v>
       </c>
       <c r="O415" s="14">
         <f t="shared" si="31"/>
@@ -24160,7 +24160,7 @@
         <v>93</v>
       </c>
       <c r="N416" s="13">
-        <v>1067.8600000000001</v>
+        <v>1017.46</v>
       </c>
       <c r="O416" s="14">
         <f t="shared" si="31"/>
@@ -24217,7 +24217,7 @@
         <v>93</v>
       </c>
       <c r="N417" s="13">
-        <v>1068.21</v>
+        <v>1017.46</v>
       </c>
       <c r="O417" s="14">
         <f t="shared" si="31"/>
@@ -24274,7 +24274,7 @@
         <v>93.4</v>
       </c>
       <c r="N418" s="13">
-        <v>1068.56</v>
+        <v>1017.46</v>
       </c>
       <c r="O418" s="14">
         <f t="shared" si="31"/>
@@ -24331,7 +24331,7 @@
         <v>93.6</v>
       </c>
       <c r="N419" s="13">
-        <v>1068.9099999999999</v>
+        <v>1017.46</v>
       </c>
       <c r="O419" s="14">
         <f t="shared" si="31"/>
@@ -24388,7 +24388,7 @@
         <v>93.4</v>
       </c>
       <c r="N420" s="13">
-        <v>1069.26</v>
+        <v>1017.46</v>
       </c>
       <c r="O420" s="14">
         <f t="shared" si="31"/>
@@ -24445,7 +24445,7 @@
         <v>93</v>
       </c>
       <c r="N421" s="13">
-        <v>1069.6100000000001</v>
+        <v>1017.46</v>
       </c>
       <c r="O421" s="14">
         <f t="shared" si="31"/>
@@ -24502,7 +24502,7 @@
         <v>92.8</v>
       </c>
       <c r="N422" s="13">
-        <v>1069.96</v>
+        <v>1017.46</v>
       </c>
       <c r="O422" s="14">
         <f t="shared" si="31"/>
@@ -24559,7 +24559,7 @@
         <v>92.8</v>
       </c>
       <c r="N423" s="13">
-        <v>1070.31</v>
+        <v>1017.46</v>
       </c>
       <c r="O423" s="14">
         <f t="shared" si="31"/>
@@ -24616,7 +24616,7 @@
         <v>93.2</v>
       </c>
       <c r="N424" s="13">
-        <v>1070.6599999999999</v>
+        <v>1017.46</v>
       </c>
       <c r="O424" s="14">
         <f t="shared" si="31"/>
@@ -24673,7 +24673,7 @@
         <v>93.8</v>
       </c>
       <c r="N425" s="13">
-        <v>1071.01</v>
+        <v>1017.46</v>
       </c>
       <c r="O425" s="14">
         <f t="shared" si="31"/>
@@ -24730,7 +24730,7 @@
         <v>93.4</v>
       </c>
       <c r="N426" s="13">
-        <v>1071.3600000000001</v>
+        <v>1017.46</v>
       </c>
       <c r="O426" s="14">
         <f t="shared" si="31"/>
@@ -24787,7 +24787,7 @@
         <v>93.6</v>
       </c>
       <c r="N427" s="13">
-        <v>1071.71</v>
+        <v>1017.46</v>
       </c>
       <c r="O427" s="14">
         <f t="shared" si="31"/>
@@ -24844,7 +24844,7 @@
         <v>93.4</v>
       </c>
       <c r="N428" s="13">
-        <v>1072.06</v>
+        <v>1017.46</v>
       </c>
       <c r="O428" s="14">
         <f t="shared" si="31"/>
@@ -24901,7 +24901,7 @@
         <v>93.4</v>
       </c>
       <c r="N429" s="13">
-        <v>1072.4099999999999</v>
+        <v>1017.46</v>
       </c>
       <c r="O429" s="14">
         <f t="shared" si="31"/>
@@ -24958,7 +24958,7 @@
         <v>93.6</v>
       </c>
       <c r="N430" s="13">
-        <v>1072.76</v>
+        <v>1017.46</v>
       </c>
       <c r="O430" s="14">
         <f t="shared" si="31"/>
@@ -25015,7 +25015,7 @@
         <v>93.8</v>
       </c>
       <c r="N431" s="13">
-        <v>1073.1100000000001</v>
+        <v>1017.46</v>
       </c>
       <c r="O431" s="14">
         <f t="shared" si="31"/>
@@ -25072,7 +25072,7 @@
         <v>93.6</v>
       </c>
       <c r="N432" s="13">
-        <v>1118.24</v>
+        <v>1054.24</v>
       </c>
       <c r="O432" s="14">
         <f t="shared" si="31"/>
@@ -25129,7 +25129,7 @@
         <v>93.6</v>
       </c>
       <c r="N433" s="13">
-        <v>1118.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O433" s="14">
         <f t="shared" si="31"/>
@@ -25186,7 +25186,7 @@
         <v>94</v>
       </c>
       <c r="N434" s="13">
-        <v>1119.04</v>
+        <v>1054.24</v>
       </c>
       <c r="O434" s="14">
         <f t="shared" si="31"/>
@@ -25243,7 +25243,7 @@
         <v>93.8</v>
       </c>
       <c r="N435" s="13">
-        <v>1119.44</v>
+        <v>1054.24</v>
       </c>
       <c r="O435" s="14">
         <f t="shared" si="31"/>
@@ -25300,7 +25300,7 @@
         <v>93.8</v>
       </c>
       <c r="N436" s="13">
-        <v>1119.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O436" s="14">
         <f t="shared" si="31"/>
@@ -25357,7 +25357,7 @@
         <v>93.6</v>
       </c>
       <c r="N437" s="13">
-        <v>1120.24</v>
+        <v>1054.24</v>
       </c>
       <c r="O437" s="14">
         <f t="shared" si="31"/>
@@ -25414,7 +25414,7 @@
         <v>93.8</v>
       </c>
       <c r="N438" s="13">
-        <v>1120.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O438" s="14">
         <f t="shared" si="31"/>
@@ -25471,7 +25471,7 @@
         <v>93.8</v>
       </c>
       <c r="N439" s="13">
-        <v>1121.04</v>
+        <v>1054.24</v>
       </c>
       <c r="O439" s="14">
         <f t="shared" si="31"/>
@@ -25528,7 +25528,7 @@
         <v>93.8</v>
       </c>
       <c r="N440" s="13">
-        <v>1121.44</v>
+        <v>1054.24</v>
       </c>
       <c r="O440" s="14">
         <f t="shared" si="31"/>
@@ -25585,7 +25585,7 @@
         <v>94</v>
       </c>
       <c r="N441" s="13">
-        <v>1121.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O441" s="14">
         <f t="shared" si="31"/>
@@ -25642,7 +25642,7 @@
         <v>94</v>
       </c>
       <c r="N442" s="13">
-        <v>1122.24</v>
+        <v>1054.24</v>
       </c>
       <c r="O442" s="14">
         <f t="shared" si="31"/>
@@ -25699,7 +25699,7 @@
         <v>93.6</v>
       </c>
       <c r="N443" s="13">
-        <v>1122.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O443" s="14">
         <f t="shared" si="31"/>
@@ -25756,7 +25756,7 @@
         <v>93.4</v>
       </c>
       <c r="N444" s="13">
-        <v>1123.04</v>
+        <v>1054.24</v>
       </c>
       <c r="O444" s="14">
         <f t="shared" si="31"/>
@@ -25813,7 +25813,7 @@
         <v>93.4</v>
       </c>
       <c r="N445" s="13">
-        <v>1123.44</v>
+        <v>1054.24</v>
       </c>
       <c r="O445" s="14">
         <f t="shared" si="31"/>
@@ -25870,7 +25870,7 @@
         <v>93.8</v>
       </c>
       <c r="N446" s="13">
-        <v>1123.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O446" s="14">
         <f t="shared" si="31"/>
@@ -25927,7 +25927,7 @@
         <v>94</v>
       </c>
       <c r="N447" s="13">
-        <v>1124.24</v>
+        <v>1054.24</v>
       </c>
       <c r="O447" s="14">
         <f t="shared" si="31"/>
@@ -25984,7 +25984,7 @@
         <v>94</v>
       </c>
       <c r="N448" s="13">
-        <v>1124.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O448" s="14">
         <f t="shared" si="31"/>
@@ -26041,7 +26041,7 @@
         <v>94.2</v>
       </c>
       <c r="N449" s="13">
-        <v>1125.04</v>
+        <v>1054.24</v>
       </c>
       <c r="O449" s="14">
         <f t="shared" si="31"/>
@@ -26098,7 +26098,7 @@
         <v>94</v>
       </c>
       <c r="N450" s="13">
-        <v>1125.44</v>
+        <v>1054.24</v>
       </c>
       <c r="O450" s="14">
         <f t="shared" ref="O450:O513" si="35">(M450-G450)</f>
@@ -26155,7 +26155,7 @@
         <v>93.6</v>
       </c>
       <c r="N451" s="13">
-        <v>1125.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O451" s="14">
         <f t="shared" si="35"/>
@@ -26212,7 +26212,7 @@
         <v>94</v>
       </c>
       <c r="N452" s="13">
-        <v>1126.24</v>
+        <v>1054.24</v>
       </c>
       <c r="O452" s="14">
         <f t="shared" si="35"/>
@@ -26269,7 +26269,7 @@
         <v>93.8</v>
       </c>
       <c r="N453" s="13">
-        <v>1126.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O453" s="14">
         <f t="shared" si="35"/>
@@ -26326,7 +26326,7 @@
         <v>94.6</v>
       </c>
       <c r="N454" s="13">
-        <v>1127.04</v>
+        <v>1054.24</v>
       </c>
       <c r="O454" s="14">
         <f t="shared" si="35"/>
@@ -26383,7 +26383,7 @@
         <v>94.6</v>
       </c>
       <c r="N455" s="13">
-        <v>1127.44</v>
+        <v>1054.24</v>
       </c>
       <c r="O455" s="14">
         <f t="shared" si="35"/>
@@ -26440,7 +26440,7 @@
         <v>94.6</v>
       </c>
       <c r="N456" s="13">
-        <v>1127.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O456" s="14">
         <f t="shared" si="35"/>
@@ -26497,7 +26497,7 @@
         <v>93.6</v>
       </c>
       <c r="N457" s="13">
-        <v>1128.24</v>
+        <v>1054.24</v>
       </c>
       <c r="O457" s="14">
         <f t="shared" si="35"/>
@@ -26554,7 +26554,7 @@
         <v>93.8</v>
       </c>
       <c r="N458" s="13">
-        <v>1128.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O458" s="14">
         <f t="shared" si="35"/>
@@ -26611,7 +26611,7 @@
         <v>94</v>
       </c>
       <c r="N459" s="13">
-        <v>1129.04</v>
+        <v>1054.24</v>
       </c>
       <c r="O459" s="14">
         <f t="shared" si="35"/>
@@ -26668,7 +26668,7 @@
         <v>94.2</v>
       </c>
       <c r="N460" s="13">
-        <v>1129.44</v>
+        <v>1054.24</v>
       </c>
       <c r="O460" s="14">
         <f t="shared" si="35"/>
@@ -26725,7 +26725,7 @@
         <v>94.2</v>
       </c>
       <c r="N461" s="13">
-        <v>1129.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O461" s="14">
         <f t="shared" si="35"/>
@@ -26782,7 +26782,7 @@
         <v>94</v>
       </c>
       <c r="N462" s="13">
-        <v>1130.24</v>
+        <v>1054.24</v>
       </c>
       <c r="O462" s="14">
         <f t="shared" si="35"/>
@@ -26839,7 +26839,7 @@
         <v>94.4</v>
       </c>
       <c r="N463" s="13">
-        <v>1130.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="O463" s="14">
         <f t="shared" si="35"/>
@@ -26896,7 +26896,7 @@
         <v>94.4</v>
       </c>
       <c r="N464" s="13">
-        <v>1131.04</v>
+        <v>1054.24</v>
       </c>
       <c r="O464" s="14">
         <f t="shared" si="35"/>
@@ -26953,7 +26953,7 @@
         <v>94.8</v>
       </c>
       <c r="N465" s="13">
-        <v>1131.44</v>
+        <v>1054.24</v>
       </c>
       <c r="O465" s="14">
         <f t="shared" si="35"/>
@@ -27010,7 +27010,7 @@
         <v>94.6</v>
       </c>
       <c r="N466" s="13">
-        <v>1178.32</v>
+        <v>1091.02</v>
       </c>
       <c r="O466" s="14">
         <f t="shared" si="35"/>
@@ -27067,7 +27067,7 @@
         <v>94.8</v>
       </c>
       <c r="N467" s="13">
-        <v>1178.77</v>
+        <v>1091.02</v>
       </c>
       <c r="O467" s="14">
         <f t="shared" si="35"/>
@@ -27124,7 +27124,7 @@
         <v>94.8</v>
       </c>
       <c r="N468" s="13">
-        <v>1179.22</v>
+        <v>1091.02</v>
       </c>
       <c r="O468" s="14">
         <f t="shared" si="35"/>
@@ -27181,7 +27181,7 @@
         <v>94.8</v>
       </c>
       <c r="N469" s="13">
-        <v>1179.67</v>
+        <v>1091.02</v>
       </c>
       <c r="O469" s="14">
         <f t="shared" si="35"/>
@@ -27238,7 +27238,7 @@
         <v>94.6</v>
       </c>
       <c r="N470" s="13">
-        <v>1180.1199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O470" s="14">
         <f t="shared" si="35"/>
@@ -27295,7 +27295,7 @@
         <v>94.4</v>
       </c>
       <c r="N471" s="13">
-        <v>1180.57</v>
+        <v>1091.02</v>
       </c>
       <c r="O471" s="14">
         <f t="shared" si="35"/>
@@ -27352,7 +27352,7 @@
         <v>94.4</v>
       </c>
       <c r="N472" s="13">
-        <v>1181.02</v>
+        <v>1091.02</v>
       </c>
       <c r="O472" s="14">
         <f t="shared" si="35"/>
@@ -27409,7 +27409,7 @@
         <v>94.4</v>
       </c>
       <c r="N473" s="13">
-        <v>1181.47</v>
+        <v>1091.02</v>
       </c>
       <c r="O473" s="14">
         <f t="shared" si="35"/>
@@ -27466,7 +27466,7 @@
         <v>94.6</v>
       </c>
       <c r="N474" s="13">
-        <v>1181.92</v>
+        <v>1091.02</v>
       </c>
       <c r="O474" s="14">
         <f t="shared" si="35"/>
@@ -27523,7 +27523,7 @@
         <v>94.4</v>
       </c>
       <c r="N475" s="13">
-        <v>1182.3699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O475" s="14">
         <f t="shared" si="35"/>
@@ -27580,7 +27580,7 @@
         <v>94.6</v>
       </c>
       <c r="N476" s="13">
-        <v>1182.82</v>
+        <v>1091.02</v>
       </c>
       <c r="O476" s="14">
         <f t="shared" si="35"/>
@@ -27637,7 +27637,7 @@
         <v>94.4</v>
       </c>
       <c r="N477" s="13">
-        <v>1183.27</v>
+        <v>1091.02</v>
       </c>
       <c r="O477" s="14">
         <f t="shared" si="35"/>
@@ -27694,7 +27694,7 @@
         <v>94.6</v>
       </c>
       <c r="N478" s="13">
-        <v>1183.72</v>
+        <v>1091.02</v>
       </c>
       <c r="O478" s="14">
         <f t="shared" si="35"/>
@@ -27751,7 +27751,7 @@
         <v>94.4</v>
       </c>
       <c r="N479" s="13">
-        <v>1184.17</v>
+        <v>1091.02</v>
       </c>
       <c r="O479" s="14">
         <f t="shared" si="35"/>
@@ -27808,7 +27808,7 @@
         <v>94.2</v>
       </c>
       <c r="N480" s="13">
-        <v>1184.6199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O480" s="14">
         <f t="shared" si="35"/>
@@ -27865,7 +27865,7 @@
         <v>94.4</v>
       </c>
       <c r="N481" s="13">
-        <v>1185.07</v>
+        <v>1091.02</v>
       </c>
       <c r="O481" s="14">
         <f t="shared" si="35"/>
@@ -27922,7 +27922,7 @@
         <v>94.2</v>
       </c>
       <c r="N482" s="13">
-        <v>1185.52</v>
+        <v>1091.02</v>
       </c>
       <c r="O482" s="14">
         <f t="shared" si="35"/>
@@ -27979,7 +27979,7 @@
         <v>94.2</v>
       </c>
       <c r="N483" s="13">
-        <v>1185.97</v>
+        <v>1091.02</v>
       </c>
       <c r="O483" s="14">
         <f t="shared" si="35"/>
@@ -28036,7 +28036,7 @@
         <v>94.2</v>
       </c>
       <c r="N484" s="13">
-        <v>1186.42</v>
+        <v>1091.02</v>
       </c>
       <c r="O484" s="14">
         <f t="shared" si="35"/>
@@ -28093,7 +28093,7 @@
         <v>94.2</v>
       </c>
       <c r="N485" s="13">
-        <v>1186.8699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O485" s="14">
         <f t="shared" si="35"/>
@@ -28150,7 +28150,7 @@
         <v>94</v>
       </c>
       <c r="N486" s="13">
-        <v>1187.32</v>
+        <v>1091.02</v>
       </c>
       <c r="O486" s="14">
         <f t="shared" si="35"/>
@@ -28207,7 +28207,7 @@
         <v>94.4</v>
       </c>
       <c r="N487" s="13">
-        <v>1187.77</v>
+        <v>1091.02</v>
       </c>
       <c r="O487" s="14">
         <f t="shared" si="35"/>
@@ -28264,7 +28264,7 @@
         <v>94</v>
       </c>
       <c r="N488" s="13">
-        <v>1188.22</v>
+        <v>1091.02</v>
       </c>
       <c r="O488" s="14">
         <f t="shared" si="35"/>
@@ -28321,7 +28321,7 @@
         <v>94.2</v>
       </c>
       <c r="N489" s="13">
-        <v>1188.67</v>
+        <v>1091.02</v>
       </c>
       <c r="O489" s="14">
         <f t="shared" si="35"/>
@@ -28378,7 +28378,7 @@
         <v>94.8</v>
       </c>
       <c r="N490" s="13">
-        <v>1189.1199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O490" s="14">
         <f t="shared" si="35"/>
@@ -28435,7 +28435,7 @@
         <v>94.4</v>
       </c>
       <c r="N491" s="13">
-        <v>1189.57</v>
+        <v>1091.02</v>
       </c>
       <c r="O491" s="14">
         <f t="shared" si="35"/>
@@ -28492,7 +28492,7 @@
         <v>94.8</v>
       </c>
       <c r="N492" s="13">
-        <v>1190.02</v>
+        <v>1091.02</v>
       </c>
       <c r="O492" s="14">
         <f t="shared" si="35"/>
@@ -28549,7 +28549,7 @@
         <v>94.6</v>
       </c>
       <c r="N493" s="13">
-        <v>1190.47</v>
+        <v>1091.02</v>
       </c>
       <c r="O493" s="14">
         <f t="shared" si="35"/>
@@ -28606,7 +28606,7 @@
         <v>94.6</v>
       </c>
       <c r="N494" s="13">
-        <v>1190.92</v>
+        <v>1091.02</v>
       </c>
       <c r="O494" s="14">
         <f t="shared" si="35"/>
@@ -28663,7 +28663,7 @@
         <v>94.6</v>
       </c>
       <c r="N495" s="13">
-        <v>1191.3699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O495" s="14">
         <f t="shared" si="35"/>
@@ -28720,7 +28720,7 @@
         <v>94.6</v>
       </c>
       <c r="N496" s="13">
-        <v>1191.82</v>
+        <v>1091.02</v>
       </c>
       <c r="O496" s="14">
         <f t="shared" si="35"/>
@@ -28777,7 +28777,7 @@
         <v>94.4</v>
       </c>
       <c r="N497" s="13">
-        <v>1192.27</v>
+        <v>1091.02</v>
       </c>
       <c r="O497" s="14">
         <f t="shared" si="35"/>
@@ -28834,7 +28834,7 @@
         <v>94.6</v>
       </c>
       <c r="N498" s="13">
-        <v>1192.72</v>
+        <v>1091.02</v>
       </c>
       <c r="O498" s="14">
         <f t="shared" si="35"/>
@@ -28891,7 +28891,7 @@
         <v>94.8</v>
       </c>
       <c r="N499" s="13">
-        <v>1193.17</v>
+        <v>1091.02</v>
       </c>
       <c r="O499" s="14">
         <f t="shared" si="35"/>
@@ -28948,7 +28948,7 @@
         <v>94.6</v>
       </c>
       <c r="N500" s="13">
-        <v>1193.6199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O500" s="14">
         <f t="shared" si="35"/>
@@ -29005,7 +29005,7 @@
         <v>94.8</v>
       </c>
       <c r="N501" s="13">
-        <v>1194.07</v>
+        <v>1091.02</v>
       </c>
       <c r="O501" s="14">
         <f t="shared" si="35"/>
@@ -29062,7 +29062,7 @@
         <v>95.4</v>
       </c>
       <c r="N502" s="13">
-        <v>1194.52</v>
+        <v>1091.02</v>
       </c>
       <c r="O502" s="14">
         <f t="shared" si="35"/>
@@ -29119,7 +29119,7 @@
         <v>95.4</v>
       </c>
       <c r="N503" s="13">
-        <v>1194.97</v>
+        <v>1091.02</v>
       </c>
       <c r="O503" s="14">
         <f t="shared" si="35"/>
@@ -29176,7 +29176,7 @@
         <v>95</v>
       </c>
       <c r="N504" s="13">
-        <v>1195.42</v>
+        <v>1091.02</v>
       </c>
       <c r="O504" s="14">
         <f t="shared" si="35"/>
@@ -29233,7 +29233,7 @@
         <v>95</v>
       </c>
       <c r="N505" s="13">
-        <v>1195.8699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O505" s="14">
         <f t="shared" si="35"/>
@@ -29290,7 +29290,7 @@
         <v>95.4</v>
       </c>
       <c r="N506" s="13">
-        <v>1196.32</v>
+        <v>1091.02</v>
       </c>
       <c r="O506" s="14">
         <f t="shared" si="35"/>
@@ -29347,7 +29347,7 @@
         <v>95.2</v>
       </c>
       <c r="N507" s="13">
-        <v>1196.77</v>
+        <v>1091.02</v>
       </c>
       <c r="O507" s="14">
         <f t="shared" si="35"/>
@@ -29404,7 +29404,7 @@
         <v>95.4</v>
       </c>
       <c r="N508" s="13">
-        <v>1197.22</v>
+        <v>1091.02</v>
       </c>
       <c r="O508" s="14">
         <f t="shared" si="35"/>
@@ -29461,7 +29461,7 @@
         <v>95</v>
       </c>
       <c r="N509" s="13">
-        <v>1197.67</v>
+        <v>1091.02</v>
       </c>
       <c r="O509" s="14">
         <f t="shared" si="35"/>
@@ -29518,7 +29518,7 @@
         <v>95</v>
       </c>
       <c r="N510" s="13">
-        <v>1198.1199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O510" s="14">
         <f t="shared" si="35"/>
@@ -29575,7 +29575,7 @@
         <v>95.6</v>
       </c>
       <c r="N511" s="13">
-        <v>1198.57</v>
+        <v>1091.02</v>
       </c>
       <c r="O511" s="14">
         <f t="shared" si="35"/>
@@ -29632,7 +29632,7 @@
         <v>95.8</v>
       </c>
       <c r="N512" s="13">
-        <v>1199.02</v>
+        <v>1091.02</v>
       </c>
       <c r="O512" s="14">
         <f t="shared" si="35"/>
@@ -29689,7 +29689,7 @@
         <v>95.6</v>
       </c>
       <c r="N513" s="13">
-        <v>1199.47</v>
+        <v>1091.02</v>
       </c>
       <c r="O513" s="14">
         <f t="shared" si="35"/>
@@ -29746,7 +29746,7 @@
         <v>95.2</v>
       </c>
       <c r="N514" s="13">
-        <v>1199.92</v>
+        <v>1091.02</v>
       </c>
       <c r="O514" s="14">
         <f t="shared" ref="O514:O577" si="39">(M514-G514)</f>
@@ -29803,7 +29803,7 @@
         <v>95.4</v>
       </c>
       <c r="N515" s="13">
-        <v>1200.3699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O515" s="14">
         <f t="shared" si="39"/>
@@ -29860,7 +29860,7 @@
         <v>95.4</v>
       </c>
       <c r="N516" s="13">
-        <v>1200.82</v>
+        <v>1091.02</v>
       </c>
       <c r="O516" s="14">
         <f t="shared" si="39"/>
@@ -29917,7 +29917,7 @@
         <v>95.4</v>
       </c>
       <c r="N517" s="13">
-        <v>1201.27</v>
+        <v>1091.02</v>
       </c>
       <c r="O517" s="14">
         <f t="shared" si="39"/>
@@ -29974,7 +29974,7 @@
         <v>95.2</v>
       </c>
       <c r="N518" s="13">
-        <v>1201.72</v>
+        <v>1091.02</v>
       </c>
       <c r="O518" s="14">
         <f t="shared" si="39"/>
@@ -30031,7 +30031,7 @@
         <v>95.8</v>
       </c>
       <c r="N519" s="13">
-        <v>1202.17</v>
+        <v>1091.02</v>
       </c>
       <c r="O519" s="14">
         <f t="shared" si="39"/>
@@ -30088,7 +30088,7 @@
         <v>95.4</v>
       </c>
       <c r="N520" s="13">
-        <v>1202.6199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O520" s="14">
         <f t="shared" si="39"/>
@@ -30145,7 +30145,7 @@
         <v>95.2</v>
       </c>
       <c r="N521" s="13">
-        <v>1203.07</v>
+        <v>1091.02</v>
       </c>
       <c r="O521" s="14">
         <f t="shared" si="39"/>
@@ -30202,7 +30202,7 @@
         <v>95.4</v>
       </c>
       <c r="N522" s="13">
-        <v>1203.52</v>
+        <v>1091.02</v>
       </c>
       <c r="O522" s="14">
         <f t="shared" si="39"/>
@@ -30259,7 +30259,7 @@
         <v>95.8</v>
       </c>
       <c r="N523" s="13">
-        <v>1203.97</v>
+        <v>1091.02</v>
       </c>
       <c r="O523" s="14">
         <f t="shared" si="39"/>
@@ -30316,7 +30316,7 @@
         <v>95.8</v>
       </c>
       <c r="N524" s="13">
-        <v>1204.42</v>
+        <v>1091.02</v>
       </c>
       <c r="O524" s="14">
         <f t="shared" si="39"/>
@@ -30373,7 +30373,7 @@
         <v>95.6</v>
       </c>
       <c r="N525" s="13">
-        <v>1204.8699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O525" s="14">
         <f t="shared" si="39"/>
@@ -30430,7 +30430,7 @@
         <v>95.6</v>
       </c>
       <c r="N526" s="13">
-        <v>1205.32</v>
+        <v>1091.02</v>
       </c>
       <c r="O526" s="14">
         <f t="shared" si="39"/>
@@ -30487,7 +30487,7 @@
         <v>95.6</v>
       </c>
       <c r="N527" s="13">
-        <v>1205.77</v>
+        <v>1091.02</v>
       </c>
       <c r="O527" s="14">
         <f t="shared" si="39"/>
@@ -30544,7 +30544,7 @@
         <v>95.6</v>
       </c>
       <c r="N528" s="13">
-        <v>1206.22</v>
+        <v>1091.02</v>
       </c>
       <c r="O528" s="14">
         <f t="shared" si="39"/>
@@ -30601,7 +30601,7 @@
         <v>95.4</v>
       </c>
       <c r="N529" s="13">
-        <v>1206.67</v>
+        <v>1091.02</v>
       </c>
       <c r="O529" s="14">
         <f t="shared" si="39"/>
@@ -30658,7 +30658,7 @@
         <v>95.2</v>
       </c>
       <c r="N530" s="13">
-        <v>1207.1199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O530" s="14">
         <f t="shared" si="39"/>
@@ -30715,7 +30715,7 @@
         <v>95.6</v>
       </c>
       <c r="N531" s="13">
-        <v>1207.57</v>
+        <v>1091.02</v>
       </c>
       <c r="O531" s="14">
         <f t="shared" si="39"/>
@@ -30772,7 +30772,7 @@
         <v>96</v>
       </c>
       <c r="N532" s="13">
-        <v>1208.02</v>
+        <v>1091.02</v>
       </c>
       <c r="O532" s="14">
         <f t="shared" si="39"/>
@@ -30829,7 +30829,7 @@
         <v>96</v>
       </c>
       <c r="N533" s="13">
-        <v>1208.47</v>
+        <v>1091.02</v>
       </c>
       <c r="O533" s="14">
         <f t="shared" si="39"/>
@@ -30886,7 +30886,7 @@
         <v>95.8</v>
       </c>
       <c r="N534" s="13">
-        <v>1208.92</v>
+        <v>1091.02</v>
       </c>
       <c r="O534" s="14">
         <f t="shared" si="39"/>
@@ -30943,7 +30943,7 @@
         <v>95.4</v>
       </c>
       <c r="N535" s="13">
-        <v>1209.3699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="O535" s="14">
         <f t="shared" si="39"/>
@@ -31000,7 +31000,7 @@
         <v>95.4</v>
       </c>
       <c r="N536" s="13">
-        <v>1209.82</v>
+        <v>1091.02</v>
       </c>
       <c r="O536" s="14">
         <f t="shared" si="39"/>
@@ -31057,7 +31057,7 @@
         <v>95.6</v>
       </c>
       <c r="N537" s="13">
-        <v>1210.27</v>
+        <v>1091.02</v>
       </c>
       <c r="O537" s="14">
         <f t="shared" si="39"/>
@@ -31114,7 +31114,7 @@
         <v>95.8</v>
       </c>
       <c r="N538" s="13">
-        <v>1210.72</v>
+        <v>1091.02</v>
       </c>
       <c r="O538" s="14">
         <f t="shared" si="39"/>
@@ -31171,7 +31171,7 @@
         <v>96</v>
       </c>
       <c r="N539" s="13">
-        <v>1211.17</v>
+        <v>1091.02</v>
       </c>
       <c r="O539" s="14">
         <f t="shared" si="39"/>
@@ -31228,7 +31228,7 @@
         <v>96</v>
       </c>
       <c r="N540" s="13">
-        <v>1261.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O540" s="14">
         <f t="shared" si="39"/>
@@ -31285,7 +31285,7 @@
         <v>96</v>
       </c>
       <c r="N541" s="13">
-        <v>1262.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O541" s="14">
         <f t="shared" si="39"/>
@@ -31342,7 +31342,7 @@
         <v>96.2</v>
       </c>
       <c r="N542" s="13">
-        <v>1262.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O542" s="14">
         <f t="shared" si="39"/>
@@ -31399,7 +31399,7 @@
         <v>96.2</v>
       </c>
       <c r="N543" s="13">
-        <v>1263.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O543" s="14">
         <f t="shared" si="39"/>
@@ -31456,7 +31456,7 @@
         <v>96.4</v>
       </c>
       <c r="N544" s="13">
-        <v>1263.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O544" s="14">
         <f t="shared" si="39"/>
@@ -31513,7 +31513,7 @@
         <v>96.2</v>
       </c>
       <c r="N545" s="13">
-        <v>1264.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O545" s="14">
         <f t="shared" si="39"/>
@@ -31570,7 +31570,7 @@
         <v>96</v>
       </c>
       <c r="N546" s="13">
-        <v>1264.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O546" s="14">
         <f t="shared" si="39"/>
@@ -31627,7 +31627,7 @@
         <v>96</v>
       </c>
       <c r="N547" s="13">
-        <v>1265.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O547" s="14">
         <f t="shared" si="39"/>
@@ -31684,7 +31684,7 @@
         <v>96</v>
       </c>
       <c r="N548" s="13">
-        <v>1265.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O548" s="14">
         <f t="shared" si="39"/>
@@ -31741,7 +31741,7 @@
         <v>96.2</v>
       </c>
       <c r="N549" s="13">
-        <v>1266.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O549" s="14">
         <f t="shared" si="39"/>
@@ -31798,7 +31798,7 @@
         <v>96.6</v>
       </c>
       <c r="N550" s="13">
-        <v>1266.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O550" s="14">
         <f t="shared" si="39"/>
@@ -31855,7 +31855,7 @@
         <v>96.6</v>
       </c>
       <c r="N551" s="13">
-        <v>1267.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O551" s="14">
         <f t="shared" si="39"/>
@@ -31912,7 +31912,7 @@
         <v>96.6</v>
       </c>
       <c r="N552" s="13">
-        <v>1267.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O552" s="14">
         <f t="shared" si="39"/>
@@ -31969,7 +31969,7 @@
         <v>96.6</v>
       </c>
       <c r="N553" s="13">
-        <v>1268.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O553" s="14">
         <f t="shared" si="39"/>
@@ -32026,7 +32026,7 @@
         <v>96.6</v>
       </c>
       <c r="N554" s="13">
-        <v>1268.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O554" s="14">
         <f t="shared" si="39"/>
@@ -32083,7 +32083,7 @@
         <v>96.4</v>
       </c>
       <c r="N555" s="13">
-        <v>1269.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O555" s="14">
         <f t="shared" si="39"/>
@@ -32140,7 +32140,7 @@
         <v>96.4</v>
       </c>
       <c r="N556" s="13">
-        <v>1269.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O556" s="14">
         <f t="shared" si="39"/>
@@ -32197,7 +32197,7 @@
         <v>96.4</v>
       </c>
       <c r="N557" s="13">
-        <v>1270.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O557" s="14">
         <f t="shared" si="39"/>
@@ -32254,7 +32254,7 @@
         <v>96.4</v>
       </c>
       <c r="N558" s="13">
-        <v>1270.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O558" s="14">
         <f t="shared" si="39"/>
@@ -32311,7 +32311,7 @@
         <v>96.4</v>
       </c>
       <c r="N559" s="13">
-        <v>1271.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O559" s="14">
         <f t="shared" si="39"/>
@@ -32368,7 +32368,7 @@
         <v>96.6</v>
       </c>
       <c r="N560" s="13">
-        <v>1271.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O560" s="14">
         <f t="shared" si="39"/>
@@ -32425,7 +32425,7 @@
         <v>97</v>
       </c>
       <c r="N561" s="13">
-        <v>1272.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O561" s="14">
         <f t="shared" si="39"/>
@@ -32482,7 +32482,7 @@
         <v>97.2</v>
       </c>
       <c r="N562" s="13">
-        <v>1272.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O562" s="14">
         <f t="shared" si="39"/>
@@ -32539,7 +32539,7 @@
         <v>96.8</v>
       </c>
       <c r="N563" s="13">
-        <v>1273.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O563" s="14">
         <f t="shared" si="39"/>
@@ -32596,7 +32596,7 @@
         <v>96.6</v>
       </c>
       <c r="N564" s="13">
-        <v>1273.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O564" s="14">
         <f t="shared" si="39"/>
@@ -32653,7 +32653,7 @@
         <v>96.6</v>
       </c>
       <c r="N565" s="13">
-        <v>1274.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O565" s="14">
         <f t="shared" si="39"/>
@@ -32710,7 +32710,7 @@
         <v>96.8</v>
       </c>
       <c r="N566" s="13">
-        <v>1274.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O566" s="14">
         <f t="shared" si="39"/>
@@ -32767,7 +32767,7 @@
         <v>96.6</v>
       </c>
       <c r="N567" s="13">
-        <v>1275.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O567" s="14">
         <f t="shared" si="39"/>
@@ -32824,7 +32824,7 @@
         <v>96.4</v>
       </c>
       <c r="N568" s="13">
-        <v>1275.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O568" s="14">
         <f t="shared" si="39"/>
@@ -32881,7 +32881,7 @@
         <v>96.2</v>
       </c>
       <c r="N569" s="13">
-        <v>1276.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O569" s="14">
         <f t="shared" si="39"/>
@@ -32938,7 +32938,7 @@
         <v>96.2</v>
       </c>
       <c r="N570" s="13">
-        <v>1276.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O570" s="14">
         <f t="shared" si="39"/>
@@ -32995,7 +32995,7 @@
         <v>96.4</v>
       </c>
       <c r="N571" s="13">
-        <v>1277.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O571" s="14">
         <f t="shared" si="39"/>
@@ -33052,7 +33052,7 @@
         <v>96.4</v>
       </c>
       <c r="N572" s="13">
-        <v>1277.8</v>
+        <v>1127.8</v>
       </c>
       <c r="O572" s="14">
         <f t="shared" si="39"/>
@@ -33109,7 +33109,7 @@
         <v>97</v>
       </c>
       <c r="N573" s="13">
-        <v>1278.3</v>
+        <v>1127.8</v>
       </c>
       <c r="O573" s="14">
         <f t="shared" si="39"/>
@@ -33166,7 +33166,7 @@
         <v>96.4</v>
       </c>
       <c r="N574" s="13">
-        <v>1330.6799999999998</v>
+        <v>1164.58</v>
       </c>
       <c r="O574" s="14">
         <f t="shared" si="39"/>
@@ -33223,7 +33223,7 @@
         <v>96.2</v>
       </c>
       <c r="N575" s="13">
-        <v>1331.23</v>
+        <v>1164.58</v>
       </c>
       <c r="O575" s="14">
         <f t="shared" si="39"/>
@@ -33280,7 +33280,7 @@
         <v>96.6</v>
       </c>
       <c r="N576" s="13">
-        <v>1331.78</v>
+        <v>1164.58</v>
       </c>
       <c r="O576" s="14">
         <f t="shared" si="39"/>
@@ -33337,7 +33337,7 @@
         <v>96.6</v>
       </c>
       <c r="N577" s="13">
-        <v>1332.33</v>
+        <v>1164.58</v>
       </c>
       <c r="O577" s="14">
         <f t="shared" si="39"/>
@@ -33394,7 +33394,7 @@
         <v>96.8</v>
       </c>
       <c r="N578" s="13">
-        <v>1332.88</v>
+        <v>1164.58</v>
       </c>
       <c r="O578" s="14">
         <f t="shared" ref="O578:O602" si="43">(M578-G578)</f>
@@ -33451,7 +33451,7 @@
         <v>96.6</v>
       </c>
       <c r="N579" s="13">
-        <v>1333.4299999999998</v>
+        <v>1164.58</v>
       </c>
       <c r="O579" s="14">
         <f t="shared" si="43"/>
@@ -33508,7 +33508,7 @@
         <v>96.2</v>
       </c>
       <c r="N580" s="13">
-        <v>1333.98</v>
+        <v>1164.58</v>
       </c>
       <c r="O580" s="14">
         <f t="shared" si="43"/>
@@ -33565,7 +33565,7 @@
         <v>95.8</v>
       </c>
       <c r="N581" s="13">
-        <v>1334.53</v>
+        <v>1164.58</v>
       </c>
       <c r="O581" s="14">
         <f t="shared" si="43"/>
@@ -33622,7 +33622,7 @@
         <v>95.4</v>
       </c>
       <c r="N582" s="13">
-        <v>1335.08</v>
+        <v>1164.58</v>
       </c>
       <c r="O582" s="14">
         <f t="shared" si="43"/>
@@ -33679,7 +33679,7 @@
         <v>95.4</v>
       </c>
       <c r="N583" s="13">
-        <v>1335.63</v>
+        <v>1164.58</v>
       </c>
       <c r="O583" s="14">
         <f t="shared" si="43"/>
@@ -33736,7 +33736,7 @@
         <v>95.2</v>
       </c>
       <c r="N584" s="13">
-        <v>1336.1799999999998</v>
+        <v>1164.58</v>
       </c>
       <c r="O584" s="14">
         <f t="shared" si="43"/>
@@ -33793,7 +33793,7 @@
         <v>95.6</v>
       </c>
       <c r="N585" s="13">
-        <v>1336.73</v>
+        <v>1164.58</v>
       </c>
       <c r="O585" s="14">
         <f t="shared" si="43"/>
@@ -33850,7 +33850,7 @@
         <v>95.8</v>
       </c>
       <c r="N586" s="13">
-        <v>1337.28</v>
+        <v>1164.58</v>
       </c>
       <c r="O586" s="14">
         <f t="shared" si="43"/>
@@ -33907,7 +33907,7 @@
         <v>96</v>
       </c>
       <c r="N587" s="13">
-        <v>1337.83</v>
+        <v>1164.58</v>
       </c>
       <c r="O587" s="14">
         <f t="shared" si="43"/>
@@ -33964,7 +33964,7 @@
         <v>95.6</v>
       </c>
       <c r="N588" s="13">
-        <v>1390.96</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O588" s="14">
         <f t="shared" si="43"/>
@@ -34021,7 +34021,7 @@
         <v>95.2</v>
       </c>
       <c r="N589" s="13">
-        <v>1391.56</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O589" s="14">
         <f t="shared" si="43"/>
@@ -34078,7 +34078,7 @@
         <v>95.2</v>
       </c>
       <c r="N590" s="13">
-        <v>1392.1599999999999</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O590" s="14">
         <f t="shared" si="43"/>
@@ -34135,7 +34135,7 @@
         <v>94.8</v>
       </c>
       <c r="N591" s="13">
-        <v>1392.7599999999998</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O591" s="14">
         <f t="shared" si="43"/>
@@ -34192,7 +34192,7 @@
         <v>95</v>
       </c>
       <c r="N592" s="13">
-        <v>1393.36</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O592" s="14">
         <f t="shared" si="43"/>
@@ -34249,7 +34249,7 @@
         <v>95.2</v>
       </c>
       <c r="N593" s="13">
-        <v>1393.96</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O593" s="14">
         <f t="shared" si="43"/>
@@ -34306,7 +34306,7 @@
         <v>95</v>
       </c>
       <c r="N594" s="13">
-        <v>1394.56</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O594" s="14">
         <f t="shared" si="43"/>
@@ -34363,7 +34363,7 @@
         <v>95</v>
       </c>
       <c r="N595" s="13">
-        <v>1395.1599999999999</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O595" s="14">
         <f t="shared" si="43"/>
@@ -34420,7 +34420,7 @@
         <v>95</v>
       </c>
       <c r="N596" s="13">
-        <v>1395.7599999999998</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O596" s="14">
         <f t="shared" si="43"/>
@@ -34477,7 +34477,7 @@
         <v>95</v>
       </c>
       <c r="N597" s="13">
-        <v>1396.36</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O597" s="14">
         <f t="shared" si="43"/>
@@ -34534,7 +34534,7 @@
         <v>95</v>
       </c>
       <c r="N598" s="13">
-        <v>1396.96</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O598" s="14">
         <f t="shared" si="43"/>
@@ -34591,7 +34591,7 @@
         <v>95.4</v>
       </c>
       <c r="N599" s="13">
-        <v>1397.56</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O599" s="14">
         <f t="shared" si="43"/>
@@ -34648,7 +34648,7 @@
         <v>95.6</v>
       </c>
       <c r="N600" s="13">
-        <v>1398.1599999999999</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O600" s="14">
         <f t="shared" si="43"/>
@@ -34705,7 +34705,7 @@
         <v>95.4</v>
       </c>
       <c r="N601" s="13">
-        <v>1398.7599999999998</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O601" s="14">
         <f t="shared" si="43"/>
@@ -34762,7 +34762,7 @@
         <v>95.2</v>
       </c>
       <c r="N602" s="13">
-        <v>1399.36</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="O602" s="14">
         <f t="shared" si="43"/>
